--- a/docs/Comparaison_transfo_Suisse.xlsx
+++ b/docs/Comparaison_transfo_Suisse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{493DB5F6-6E29-483F-91F2-92458A3850A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4E5D109-FFCE-4BAF-8807-21ABF5A701FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t>Comparaison de coordonnées</t>
+  </si>
+  <si>
+    <t>Départ</t>
+  </si>
+  <si>
+    <t>Arrivé</t>
+  </si>
+  <si>
+    <t>Système</t>
+  </si>
+  <si>
+    <t>E / Y</t>
+  </si>
+  <si>
+    <t>N / X</t>
+  </si>
+  <si>
+    <t>∆ E /Y</t>
+  </si>
+  <si>
+    <t>∆  N / Z</t>
+  </si>
+  <si>
+    <t>∆ Z / H elli.</t>
+  </si>
+  <si>
+    <t>Z / H elli.</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>[N°]</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[mm]</t>
+  </si>
+  <si>
+    <t>AUBE</t>
+  </si>
+  <si>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>Cartésienne CH1903+ mesuré</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cartésienne CH1903+ calculé</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Calculé</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,16 +101,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -46,12 +152,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,12 +567,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1103.7216253351894</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1103.67995102793</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="18">
+        <f>(G6-J6)*100</f>
+        <v>4.1674307259427223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Comparaison_transfo_Suisse.xlsx
+++ b/docs/Comparaison_transfo_Suisse.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4E5D109-FFCE-4BAF-8807-21ABF5A701FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>Comparaison de coordonnées</t>
   </si>
@@ -40,12 +39,6 @@
     <t>N / X</t>
   </si>
   <si>
-    <t>∆ E /Y</t>
-  </si>
-  <si>
-    <t>∆  N / Z</t>
-  </si>
-  <si>
     <t>∆ Z / H elli.</t>
   </si>
   <si>
@@ -55,9 +48,6 @@
     <t>Points</t>
   </si>
   <si>
-    <t>[N°]</t>
-  </si>
-  <si>
     <t>[m]</t>
   </si>
   <si>
@@ -70,30 +60,155 @@
     <t>FOUR</t>
   </si>
   <si>
-    <t>Cartésienne CH1903+ mesuré</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Cartésienne CH1903+ calculé</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Calculé</t>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Différence peut venir de la précision des mesures</t>
+  </si>
+  <si>
+    <t>Géographique CH1903+ NF02 calculé</t>
+  </si>
+  <si>
+    <t>Géographique CH1903+ RAN95 calculé</t>
+  </si>
+  <si>
+    <t>AGNES BOUR</t>
+  </si>
+  <si>
+    <t>[N° / NOM]</t>
+  </si>
+  <si>
+    <t>Carthésienne ETRS89 mesuré</t>
+  </si>
+  <si>
+    <t>Carthésienne CHTRF95</t>
+  </si>
+  <si>
+    <t>Ellipsoidale CHTRF95</t>
+  </si>
+  <si>
+    <t>CH 1903+ (h elli)</t>
+  </si>
+  <si>
+    <t>IGN69</t>
+  </si>
+  <si>
+    <t>Carthésienne ETRS89</t>
+  </si>
+  <si>
+    <t>PRNY</t>
+  </si>
+  <si>
+    <t>Lambert93</t>
+  </si>
+  <si>
+    <t>AGNES STCX</t>
+  </si>
+  <si>
+    <t>Doit</t>
+  </si>
+  <si>
+    <t>Avoir</t>
+  </si>
+  <si>
+    <t>N / X / long</t>
+  </si>
+  <si>
+    <t>E / Y / lat</t>
+  </si>
+  <si>
+    <t>∆ E / Y / lat</t>
+  </si>
+  <si>
+    <t>∆ N / X / long</t>
+  </si>
+  <si>
+    <t>Déviation</t>
+  </si>
+  <si>
+    <t>Grandson</t>
+  </si>
+  <si>
+    <t>MN95 E</t>
+  </si>
+  <si>
+    <t>MN95 N</t>
+  </si>
+  <si>
+    <t>ksi</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>zéta</t>
+  </si>
+  <si>
+    <t>CH1903+</t>
+  </si>
+  <si>
+    <t>ETRS89</t>
+  </si>
+  <si>
+    <t>géogr CH1903+</t>
+  </si>
+  <si>
+    <t>géogr ETRS89</t>
+  </si>
+  <si>
+    <t>2'537'243.6, 1'181'153.7</t>
+  </si>
+  <si>
+    <t>VD O208</t>
+  </si>
+  <si>
+    <t>545'197.81, 189'019.14</t>
+  </si>
+  <si>
+    <t>VD O189</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
+  <si>
+    <t>H calculé</t>
+  </si>
+  <si>
+    <t>RAN95-NF02</t>
+  </si>
+  <si>
+    <t>doit [cm]</t>
+  </si>
+  <si>
+    <t>avoir [cm]</t>
+  </si>
+  <si>
+    <t>∆ HTRANS</t>
+  </si>
+  <si>
+    <t>CH 1903+ (NF02)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +244,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,21 +364,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,19 +390,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,348 +720,1519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1103.7216253351894</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1103.6898000000001</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="13">
+        <f>(J6-M6)*1000</f>
+        <v>31.825335189296311</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1103.7233253351894</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1103.6916000000001</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" ref="N7:P9" si="0">(J7-M7)*1000</f>
+        <v>31.725335189321413</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1084.886</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1084.9670000000001</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>-81.000000000130967</v>
+      </c>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12">
+        <v>954039.62899999996</v>
+      </c>
+      <c r="I9" s="12">
+        <v>6650340.5020000003</v>
+      </c>
+      <c r="J9" s="12">
+        <v>833.47</v>
+      </c>
+      <c r="K9" s="12">
+        <v>954039.62899999996</v>
+      </c>
+      <c r="L9" s="12">
+        <v>6650340.5020000003</v>
+      </c>
+      <c r="M9" s="11">
+        <v>833.46699999999998</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" ref="O9" si="1">(I9-L9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" ref="P9" si="2">(J9-M9)*1000</f>
+        <v>3.0000000000427463</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="23">
+        <v>4291771.9939999999</v>
+      </c>
+      <c r="F11" s="23">
+        <v>544504.83299999998</v>
+      </c>
+      <c r="G11" s="23">
+        <v>4672230.034</v>
+      </c>
+      <c r="H11" s="23">
+        <v>2584293.7400000002</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1249277.899</v>
+      </c>
+      <c r="J11" s="23">
+        <v>891.52700000000004</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:N16" si="3">(H11-K11)*1000</f>
+        <v>2584293740</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" ref="O11:O19" si="4">(I11-L11)*1000</f>
+        <v>1249277899</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" ref="P11:P19" si="5">(J11-M11)*1000</f>
+        <v>891527</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23">
+        <v>4291771.9939999999</v>
+      </c>
+      <c r="F12" s="23">
+        <v>544504.83299999998</v>
+      </c>
+      <c r="G12" s="23">
+        <v>4672230.034</v>
+      </c>
+      <c r="H12" s="23">
+        <v>2584293.7400000002</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1249277.899</v>
+      </c>
+      <c r="J12" s="23">
+        <v>891.52700000000004</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.82718370811453856</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.12619756995683035</v>
+      </c>
+      <c r="G13" s="23">
+        <v>940.16399999999999</v>
+      </c>
+      <c r="H13" s="23">
+        <v>2584293.7400000002</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1249277.899</v>
+      </c>
+      <c r="J13" s="23">
+        <v>891.52700000000004</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <f t="shared" si="3"/>
+        <v>2584293740</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="4"/>
+        <v>1249277899</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="5"/>
+        <v>891527</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.82718370811453856</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.12619756995683035</v>
+      </c>
+      <c r="G14" s="23">
+        <v>940.16399999999999</v>
+      </c>
+      <c r="H14" s="23">
+        <v>4291771.9939999999</v>
+      </c>
+      <c r="I14" s="23">
+        <v>544504.83299999998</v>
+      </c>
+      <c r="J14" s="23">
+        <v>4672230.034</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <f t="shared" si="3"/>
+        <v>4291771994</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="4"/>
+        <v>544504833</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="5"/>
+        <v>4672230034</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2584293.7400000002</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1249277.899</v>
+      </c>
+      <c r="G15" s="23">
+        <v>891.52700000000004</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4291771.9939999999</v>
+      </c>
+      <c r="I15" s="23">
+        <v>544504.83299999998</v>
+      </c>
+      <c r="J15" s="23">
+        <v>4672230.034</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
+        <f t="shared" si="3"/>
+        <v>4291771994</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="4"/>
+        <v>544504833</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="5"/>
+        <v>4672230034</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2584293.7400000002</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1249277.899</v>
+      </c>
+      <c r="G16" s="23">
+        <v>891.52700000000004</v>
+      </c>
+      <c r="H16" s="23">
+        <v>2584293.7400000002</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1249277.899</v>
+      </c>
+      <c r="J16" s="23">
+        <v>891.52700000000004</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
+        <f t="shared" si="3"/>
+        <v>2584293740</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="4"/>
+        <v>1249277899</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="5"/>
+        <v>891527</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="F18" s="12">
+        <v>495114.821</v>
+      </c>
+      <c r="G18" s="12">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1105.0139999999999</v>
+      </c>
+      <c r="K18" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1105.0136</v>
+      </c>
+      <c r="N18" s="12">
+        <f>(H18-K18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" ref="O18" si="6">(I18-L18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" ref="P18" si="7">(J18-M18)*1000</f>
+        <v>0.39999999989959178</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="12">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="F19" s="12">
+        <v>495114.821</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1104.7429999999999</v>
+      </c>
+      <c r="K19" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1104.7429999999999</v>
+      </c>
+      <c r="N19" s="12">
+        <f>(H19-K19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="F20" s="12">
+        <v>495114.821</v>
+      </c>
+      <c r="G20" s="12">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.8172047685103957</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0.11346681199682103</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1155.443</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0.81720479999999995</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0.11346680000000001</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1155.443</v>
+      </c>
+      <c r="N20" s="12">
+        <f>(H20-K20)*1000</f>
+        <v>-3.1489604257473047E-5</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" ref="O20" si="8">(I20-L20)*1000</f>
+        <v>1.1996821022708382E-5</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" ref="P20" si="9">(J20-M20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.8172047685103957</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.11346681199682103</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1155.443</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1104.7429999999999</v>
+      </c>
+      <c r="K21" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1104.7429999999999</v>
+      </c>
+      <c r="N21" s="12">
+        <f>(H21-K21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:O24" si="10">(I21-L21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" ref="P21:P23" si="11">(J21-M21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.8172047685103957</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.11346681199682103</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1155.443</v>
+      </c>
+      <c r="H22" s="12">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="I22" s="12">
+        <v>495114.821</v>
+      </c>
+      <c r="J22" s="12">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="K22" s="25">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="L22" s="23">
+        <v>495114.821</v>
+      </c>
+      <c r="M22" s="23">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="N22" s="12">
+        <f>(H22-K22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1104.7429999999999</v>
+      </c>
+      <c r="H23" s="12">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="I23" s="12">
+        <v>495114.821</v>
+      </c>
+      <c r="J23" s="12">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="K23" s="25">
+        <v>4344778.5750000002</v>
+      </c>
+      <c r="L23" s="23">
+        <v>495114.821</v>
+      </c>
+      <c r="M23" s="23">
+        <v>4629118.6960000005</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" ref="N21:N24" si="12">(H23-K23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2528465.1660000002</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1186121.148</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1104.7429999999999</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0.8172047685103957</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0.11346681199682103</v>
+      </c>
+      <c r="J24" s="12">
+        <v>1155.443</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0.81720476850176005</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0.11346681198953</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1155.443</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="12"/>
+        <v>8.6356477524418551E-9</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="10"/>
+        <v>7.2910288917427124E-9</v>
+      </c>
+      <c r="P24" s="12">
+        <f>(J24-M24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>537244.00009999995</v>
+      </c>
+      <c r="D29" s="26">
+        <v>181153.0001</v>
+      </c>
+      <c r="E29" s="12">
+        <v>438.5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>438.46300000000002</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-3.633</v>
+      </c>
+      <c r="H29" s="12">
+        <f>(F29-E29)*100</f>
+        <v>-3.6999999999977717</v>
+      </c>
+      <c r="I29" s="27">
+        <f>(G29-H29)*10</f>
+        <v>0.66999999997771731</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>545198.00009999995</v>
+      </c>
+      <c r="D30">
+        <v>189019.0001</v>
+      </c>
+      <c r="E30" s="12">
+        <v>440.5</v>
+      </c>
+      <c r="F30" s="12">
+        <v>440.46</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-4.0279999999999996</v>
+      </c>
+      <c r="H30" s="12">
+        <f>(F30-E30)*100</f>
+        <v>-4.0000000000020464</v>
+      </c>
+      <c r="I30" s="27">
+        <f>(G30-H30)*10</f>
+        <v>-0.27999999997953218</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D31" s="26"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C34" s="22">
+        <v>46</v>
+      </c>
+      <c r="D34" s="22">
+        <f>C34</f>
+        <v>46</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C35" s="22">
+        <v>49</v>
+      </c>
+      <c r="D35" s="22">
+        <f>C35/60</f>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C36" s="20">
+        <v>20.583241000000001</v>
+      </c>
+      <c r="D36" s="22">
+        <f>C36/3600</f>
+        <v>5.7175669444444448E-3</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22">
+        <f>D34+D35+D36</f>
+        <v>46.822384233611118</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C38" s="22"/>
+      <c r="D38" s="22">
+        <f>D37*PI()/180</f>
+        <v>0.8172047685103957</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>2536322.2999999998</v>
+      </c>
+      <c r="D44">
+        <v>1183831</v>
+      </c>
+      <c r="E44">
+        <v>-5.6044461999999998E-5</v>
+      </c>
+      <c r="F44">
+        <v>2.7876787000000002E-5</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1103.7216253351894</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1103.67995102793</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="18">
-        <f>(G6-J6)*100</f>
-        <v>4.1674307259427223</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="H44">
+        <v>-3.2191628000000002E-5</v>
+      </c>
+      <c r="I44">
+        <v>3.8397243999999999E-5</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0.81688200744799999</v>
+      </c>
+      <c r="D46">
+        <v>0.11528371312231001</v>
+      </c>
+      <c r="H46">
+        <v>-4.6246169799999999E-5</v>
+      </c>
+      <c r="I46">
+        <v>5.0764253256999997E-5</v>
+      </c>
+      <c r="K46" s="28">
+        <f>H44-H46</f>
+        <v>1.4054541799999997E-5</v>
+      </c>
+      <c r="L46" s="28">
+        <f>I44-I46</f>
+        <v>-1.2367009256999998E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="28">
+        <f>K46*180/PI()</f>
+        <v>8.0526592813019899E-4</v>
+      </c>
+      <c r="L47" s="28"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0.81685911942804756</v>
+      </c>
+      <c r="D48">
+        <v>0.1152693977833395</v>
+      </c>
+      <c r="E48">
+        <v>-4.1999002099999999E-5</v>
+      </c>
+      <c r="F48">
+        <v>1.550958E-5</v>
+      </c>
+      <c r="H48">
+        <f>E44-E48</f>
+        <v>-1.4045459899999999E-5</v>
+      </c>
+      <c r="I48">
+        <f>F44-F48</f>
+        <v>1.2367207000000002E-5</v>
+      </c>
+      <c r="K48">
+        <f>K47*3600</f>
+        <v>2.8989573412687162</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H49" s="28">
+        <f>H48*180/PI()</f>
+        <v>-8.0474557359023926E-4</v>
+      </c>
+      <c r="I49" s="28">
+        <f>I48*180/PI()</f>
+        <v>7.0858876546464849E-4</v>
+      </c>
+      <c r="K49">
+        <f>K48*3.08</f>
+        <v>8.9287886111076453</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f>H49*3600</f>
+        <v>-2.8970840649248615</v>
+      </c>
+      <c r="I50">
+        <f>I49*3600</f>
+        <v>2.5509195556727344</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f>H50*3.08</f>
+        <v>-8.9230189199685732</v>
+      </c>
+      <c r="I51">
+        <f>I50*3.08</f>
+        <v>7.8568322314720218</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Comparaison_transfo_Suisse.xlsx
+++ b/docs/Comparaison_transfo_Suisse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56F94FB8-2167-4A5E-8D9B-C28E131A2A41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53D060C6-44CA-468A-AF1A-50D524846F6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t>Comparaison de coordonnées</t>
   </si>
@@ -127,88 +127,121 @@
     <t>∆ N / X / long</t>
   </si>
   <si>
+    <t>VD O208</t>
+  </si>
+  <si>
+    <t>VD O189</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
+  <si>
+    <t>H calculé</t>
+  </si>
+  <si>
+    <t>RAN95-NF02</t>
+  </si>
+  <si>
+    <t>doit [cm]</t>
+  </si>
+  <si>
+    <t>avoir [cm]</t>
+  </si>
+  <si>
+    <t>∆ HTRANS</t>
+  </si>
+  <si>
+    <t>CH 1903+ (NF02)</t>
+  </si>
+  <si>
+    <t>Planimétrie et altimétrie</t>
+  </si>
+  <si>
+    <t>Altimétrie</t>
+  </si>
+  <si>
+    <t>Forel sur Lucens</t>
+  </si>
+  <si>
+    <t>[degré °]</t>
+  </si>
+  <si>
+    <t>ETRS89 phi</t>
+  </si>
+  <si>
+    <t>ETRS89 lambda</t>
+  </si>
+  <si>
+    <t>[rad]</t>
+  </si>
+  <si>
+    <t>MN95 E</t>
+  </si>
+  <si>
+    <t>MN95 N</t>
+  </si>
+  <si>
+    <t>CH1903+ phi</t>
+  </si>
+  <si>
+    <t>CH1903+ lambda</t>
+  </si>
+  <si>
+    <t>Dévia. Doit ETRS89</t>
+  </si>
+  <si>
+    <t>Dévia. Avoir ETRS89</t>
+  </si>
+  <si>
+    <t>[eta en sec d'arc]</t>
+  </si>
+  <si>
+    <t>[ksi en sec d'arc]</t>
+  </si>
+  <si>
+    <t>[eta en cc]</t>
+  </si>
+  <si>
+    <t>[ksi en cc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ </t>
+  </si>
+  <si>
+    <t>Dévia. Doit Ch1903+</t>
+  </si>
+  <si>
+    <t>Dévia. Avoir CH1903+</t>
+  </si>
+  <si>
+    <t>Dévia. Doit CH1903+</t>
+  </si>
+  <si>
     <t>Grandson</t>
   </si>
   <si>
-    <t>ksi</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>géogr CH1903+</t>
-  </si>
-  <si>
-    <t>géogr ETRS89</t>
-  </si>
-  <si>
-    <t>VD O208</t>
-  </si>
-  <si>
-    <t>VD O189</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H </t>
-  </si>
-  <si>
-    <t>H calculé</t>
-  </si>
-  <si>
-    <t>RAN95-NF02</t>
-  </si>
-  <si>
-    <t>doit [cm]</t>
-  </si>
-  <si>
-    <t>avoir [cm]</t>
-  </si>
-  <si>
-    <t>∆ HTRANS</t>
-  </si>
-  <si>
-    <t>CH 1903+ (NF02)</t>
-  </si>
-  <si>
-    <t>calculé</t>
-  </si>
-  <si>
-    <t>vecteur suisse</t>
-  </si>
-  <si>
-    <t>vecteur France</t>
-  </si>
-  <si>
-    <t>Valeur selon map.geo.admin</t>
-  </si>
-  <si>
-    <t>doit [seco arc]</t>
-  </si>
-  <si>
-    <t>différence  [seco arc]</t>
-  </si>
-  <si>
-    <t>cc  [seco arc]</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>Planimétrie et altimétrie</t>
-  </si>
-  <si>
-    <t>Altimétrie</t>
-  </si>
-  <si>
-    <t>Déviation de la verticale</t>
+    <t>Différence accéptable</t>
+  </si>
+  <si>
+    <t>Aucune différence pour une précision au mm</t>
+  </si>
+  <si>
+    <t>Différence en dessous du mm --&gt; acceptable</t>
+  </si>
+  <si>
+    <t>Erreurs dificiles à quantifier. Viens sans doute des coordonnées "approximatif" de départ (1 décimal en MN03). Selon nous elle est acceptable.</t>
+  </si>
+  <si>
+    <t>Déviation de la verticale / Vecteur Français</t>
+  </si>
+  <si>
+    <t>Déviation de la verticale / Vecteur Suisse</t>
   </si>
 </sst>
 </file>
@@ -219,9 +252,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -280,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -368,35 +408,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -422,9 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,13 +450,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,7 +458,109 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,32 +578,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,16 +866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q43"/>
+  <dimension ref="B2:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -792,60 +883,63 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
-        <v>60</v>
+      <c r="B2" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27" t="s">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -946,945 +1040,975 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="E8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="25">
         <v>1103.7216253351894</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="K8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="25">
         <v>1103.6898000000001</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="N8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="26">
         <f>(J8-M8)*1000</f>
         <v>31.825335189296311</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="29">
         <v>1103.7233253351894</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="K9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="28">
         <v>1103.6916000000001</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="N9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="30">
         <f t="shared" ref="N9:P11" si="0">(J9-M9)*1000</f>
         <v>31.725335189321413</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="E10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="29">
         <v>1084.886</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="K10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="28">
         <v>1084.9670000000001</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="13">
+      <c r="N10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="30">
         <f t="shared" si="0"/>
         <v>-81.000000000130967</v>
       </c>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="E11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="29">
         <v>954039.62899999996</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="29">
         <v>6650340.5020000003</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="29">
         <v>833.47</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="29">
         <v>954039.62899999996</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="29">
         <v>6650340.5020000003</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="28">
         <v>833.46699999999998</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="31">
         <f t="shared" ref="O11" si="1">(I11-L11)*1000</f>
         <v>0</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="31">
         <f t="shared" ref="P11" si="2">(J11-M11)*1000</f>
         <v>3.0000000000427463</v>
       </c>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="54" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="32">
         <v>4291771.9939999999</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="32">
         <v>544504.83299999998</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="32">
         <v>4672230.034</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="32">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="32">
         <v>1249277.899</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="32">
         <v>891.52700000000004</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29">
         <f t="shared" ref="N13:N18" si="3">(H13-K13)*1000</f>
         <v>2584293740</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="29">
         <f t="shared" ref="O13:O21" si="4">(I13-L13)*1000</f>
         <v>1249277899</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="29">
         <f t="shared" ref="P13:P21" si="5">(J13-M13)*1000</f>
         <v>891527</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="32">
         <v>4291771.9939999999</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="32">
         <v>544504.83299999998</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="32">
         <v>4672230.034</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="32">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="32">
         <v>1249277.899</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="32">
         <v>891.52700000000004</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="33">
         <v>0.82718370811453856</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="33">
         <v>0.12619756995683035</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="32">
         <v>940.16399999999999</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="32">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="32">
         <v>1249277.899</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="32">
         <v>891.52700000000004</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29">
         <f t="shared" si="3"/>
         <v>2584293740</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="29">
         <f t="shared" si="4"/>
         <v>1249277899</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="29">
         <f t="shared" si="5"/>
         <v>891527</v>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="33">
         <v>0.82718370811453856</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="33">
         <v>0.12619756995683035</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="32">
         <v>940.16399999999999</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="32">
         <v>4291771.9939999999</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="32">
         <v>544504.83299999998</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="32">
         <v>4672230.034</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29">
         <f t="shared" si="3"/>
         <v>4291771994</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="29">
         <f t="shared" si="4"/>
         <v>544504833</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="29">
         <f t="shared" si="5"/>
         <v>4672230034</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="32">
         <v>2584293.7400000002</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="32">
         <v>1249277.899</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="32">
         <v>891.52700000000004</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="32">
         <v>4291771.9939999999</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="32">
         <v>544504.83299999998</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="32">
         <v>4672230.034</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29">
         <f t="shared" si="3"/>
         <v>4291771994</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="29">
         <f t="shared" si="4"/>
         <v>544504833</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="29">
         <f t="shared" si="5"/>
         <v>4672230034</v>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="32">
         <v>2584293.7400000002</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="32">
         <v>1249277.899</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="32">
         <v>891.52700000000004</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="32">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="32">
         <v>1249277.899</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="32">
         <v>891.52700000000004</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29">
         <f t="shared" si="3"/>
         <v>2584293740</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="29">
         <f t="shared" si="4"/>
         <v>1249277899</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="29">
         <f t="shared" si="5"/>
         <v>891527</v>
       </c>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="54"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="29">
         <v>4344778.5750000002</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="29">
         <v>495114.821</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="29">
         <v>1105.0139999999999</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="M20" s="12">
-        <v>1105.0136</v>
-      </c>
-      <c r="N20" s="12">
+      <c r="M20" s="29">
+        <v>1105.0139999999999</v>
+      </c>
+      <c r="N20" s="31">
         <f>(H20-K20)*1000</f>
         <v>0</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="31">
         <f t="shared" ref="O20" si="6">(I20-L20)*1000</f>
         <v>0</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="31">
         <f t="shared" ref="P20" si="7">(J20-M20)*1000</f>
-        <v>0.39999999989959178</v>
-      </c>
-      <c r="Q20" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="29">
         <v>4344778.5750000002</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="29">
         <v>495114.821</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="29">
         <v>1104.7429999999999</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="29">
         <v>1104.7429999999999</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="31">
         <f>(H21-K21)*1000</f>
         <v>0</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="54" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="29">
         <v>4344778.5750000002</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="29">
         <v>495114.821</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="34">
         <v>0.8172047685103957</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="34">
         <v>0.11346681199682103</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="29">
         <v>1155.443</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="34">
         <v>0.81720479999999995</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="34">
         <v>0.11346680000000001</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="29">
         <v>1155.443</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="31">
         <f>(H22-K22)*1000</f>
         <v>-3.1489604257473047E-5</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="31">
         <f t="shared" ref="O22" si="8">(I22-L22)*1000</f>
         <v>1.1996821022708382E-5</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="31">
         <f t="shared" ref="P22" si="9">(J22-M22)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="54" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="34">
         <v>0.8172047685103957</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="34">
         <v>0.11346681199682103</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="29">
         <v>1155.443</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="29">
         <v>1104.7429999999999</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="28">
         <v>1104.7429999999999</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="31">
         <f>(H23-K23)*1000</f>
         <v>0</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="31">
         <f t="shared" ref="O23:O26" si="10">(I23-L23)*1000</f>
         <v>0</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="31">
         <f t="shared" ref="P23:P25" si="11">(J23-M23)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="54" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="34">
         <v>0.8172047685103957</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="34">
         <v>0.11346681199682103</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="29">
         <v>1155.443</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="29">
         <v>4344778.5750000002</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="29">
         <v>495114.821</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="35">
         <v>4344778.5750000002</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="32">
         <v>495114.821</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="32">
         <v>4629118.6960000005</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="31">
         <f>(H24-K24)*1000</f>
         <v>0</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="54" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="29">
         <v>2528465.1660000002</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="29">
         <v>1186121.148</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="29">
         <v>1104.7429999999999</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="29">
         <v>4344778.5750000002</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="29">
         <v>495114.821</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="35">
         <v>4344778.5750000002</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="32">
         <v>495114.821</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="32">
         <v>4629118.6960000005</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="31">
         <f t="shared" ref="N25:N26" si="12">(H25-K25)*1000</f>
         <v>0</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="31">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="13"/>
+      <c r="Q25" s="54" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="37">
         <v>2528465.1660000002</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="37">
         <v>1186121.148</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="37">
         <v>1104.7429999999999</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="38">
         <v>0.8172047685103957</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="38">
         <v>0.11346681199682103</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="37">
         <v>1155.443</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="39">
         <v>0.81720476850176005</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="40">
         <v>0.11346681198953</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="40">
         <v>1155.443</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="41">
         <f t="shared" si="12"/>
         <v>8.6356477524418551E-9</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="41">
         <f t="shared" si="10"/>
         <v>7.2910288917427124E-9</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="41">
         <f>(J26-M26)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="55" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="13"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B29" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
+      <c r="B29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="21" t="s">
+      <c r="C31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="13"/>
+      <c r="J31" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
@@ -1899,362 +2023,701 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33">
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="19">
         <v>537244.00009999995</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="46">
         <v>181153.0001</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="29">
         <v>438.5</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="29">
         <v>438.46300000000002</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="29">
         <v>-3.633</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="29">
         <f>(F33-E33)*100</f>
         <v>-3.6999999999977717</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="50">
         <f>(G33-H33)*10</f>
         <v>0.66999999997771731</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34">
+      <c r="J33" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="20">
         <v>545198.00009999995</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="20">
         <v>189019.0001</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="37">
         <v>440.5</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="37">
         <v>440.46</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="37">
         <v>-4.0279999999999996</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="37">
         <f>(F34-E34)*100</f>
         <v>-4.0000000000020464</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="52">
         <f>(G34-H34)*10</f>
         <v>-0.27999999997953218</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B37" s="45" t="s">
+      <c r="J34" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="2:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="B37" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="11"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" s="56"/>
+      <c r="S39" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T39" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="U39" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="12"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30" t="s">
+      <c r="Q40" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="R40" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="S40" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="T40" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U40" s="43"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="19">
+        <v>46.731409999999997</v>
+      </c>
+      <c r="D41" s="19">
+        <v>6.8336399999999999</v>
+      </c>
+      <c r="E41" s="49">
+        <f>C41*PI()/180</f>
+        <v>0.81561696859940325</v>
+      </c>
+      <c r="F41" s="49">
+        <f>D41*PI()/180</f>
+        <v>0.11926951789598531</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2553756.4</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1175757.8999999999</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.81563963354371005</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0.11928450164388001</v>
+      </c>
+      <c r="K41" s="19">
+        <v>1.54</v>
+      </c>
+      <c r="L41" s="19">
+        <v>3.37</v>
+      </c>
+      <c r="M41" s="19">
+        <v>1.4582999999999999</v>
+      </c>
+      <c r="N41" s="19">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="O41" s="50">
+        <f>K41*200/180</f>
+        <v>1.711111111111111</v>
+      </c>
+      <c r="P41" s="50">
+        <f t="shared" ref="P41:R41" si="13">L41*200/180</f>
+        <v>3.7444444444444445</v>
+      </c>
+      <c r="Q41" s="50">
+        <f t="shared" si="13"/>
+        <v>1.6203333333333332</v>
+      </c>
+      <c r="R41" s="50">
+        <f t="shared" si="13"/>
+        <v>4.0611111111111109</v>
+      </c>
+      <c r="S41" s="69">
+        <f>O41-Q41</f>
+        <v>9.0777777777777846E-2</v>
+      </c>
+      <c r="T41" s="69">
+        <f>P41-R41</f>
+        <v>-0.31666666666666643</v>
+      </c>
+      <c r="U41" s="72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="20">
+        <v>46.802590000000002</v>
+      </c>
+      <c r="D42" s="20">
+        <v>6.6044400000000003</v>
+      </c>
+      <c r="E42" s="51">
+        <f>C42*PI()/180</f>
+        <v>0.81685929396097279</v>
+      </c>
+      <c r="F42" s="51">
+        <f>D42*PI()/180</f>
+        <v>0.1152692232504143</v>
+      </c>
+      <c r="G42" s="52">
+        <v>2536322</v>
+      </c>
+      <c r="H42" s="20">
+        <v>1183831.2</v>
+      </c>
+      <c r="I42" s="20">
+        <v>0.81563963354371005</v>
+      </c>
+      <c r="J42" s="20">
+        <v>0.11928450164388001</v>
+      </c>
+      <c r="K42" s="20">
+        <v>7.92</v>
+      </c>
+      <c r="L42" s="20">
+        <v>-6.64</v>
+      </c>
+      <c r="M42" s="20">
+        <v>7.7958999999999996</v>
+      </c>
+      <c r="N42" s="20">
+        <v>-6.875</v>
+      </c>
+      <c r="O42" s="52">
+        <f>K42*200/180</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P42" s="52">
+        <f t="shared" ref="P42" si="14">L42*200/180</f>
+        <v>-7.3777777777777782</v>
+      </c>
+      <c r="Q42" s="52">
+        <f t="shared" ref="Q42" si="15">M42*200/180</f>
+        <v>8.6621111111111109</v>
+      </c>
+      <c r="R42" s="52">
+        <f t="shared" ref="R42" si="16">N42*200/180</f>
+        <v>-7.6388888888888893</v>
+      </c>
+      <c r="S42" s="70">
+        <f>O42-Q42</f>
+        <v>0.13788888888888984</v>
+      </c>
+      <c r="T42" s="70">
+        <f>P42-R42</f>
+        <v>0.26111111111111107</v>
+      </c>
+      <c r="U42" s="71"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+    </row>
+    <row r="45" spans="2:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="B45" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30" t="s">
+      <c r="E47" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30" t="s">
+      <c r="I47" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30" t="s">
+      <c r="J47" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="31"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="K47" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" s="56"/>
+      <c r="S47" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T47" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="U47" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="L40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="P40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q40" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0.81688200744799999</v>
-      </c>
-      <c r="D41" s="33">
-        <v>0.11528371312231001</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="34">
-        <v>-6.5842235828419006E-5</v>
-      </c>
-      <c r="G41" s="34">
-        <v>4.9916998845532997E-6</v>
-      </c>
-      <c r="H41" s="34">
-        <v>-5.6044461999999998E-5</v>
-      </c>
-      <c r="I41" s="34">
-        <v>2.7876787000000002E-5</v>
-      </c>
-      <c r="J41" s="35">
-        <v>-11.560000095653001</v>
-      </c>
-      <c r="K41" s="35">
+      <c r="L48" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="O48" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q48" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="R48" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="S48" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="T48" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U48" s="43"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="19">
+        <v>46.731409999999997</v>
+      </c>
+      <c r="D49" s="19">
+        <v>6.8336399999999999</v>
+      </c>
+      <c r="E49" s="49">
+        <f>C49*PI()/180</f>
+        <v>0.81561696859940325</v>
+      </c>
+      <c r="F49" s="49">
+        <f>D49*PI()/180</f>
+        <v>0.11926951789598531</v>
+      </c>
+      <c r="G49" s="19">
+        <v>2553756.4</v>
+      </c>
+      <c r="H49" s="19">
+        <v>1175757.8999999999</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0.81563963354371005</v>
+      </c>
+      <c r="J49" s="19">
+        <v>0.11928450164388001</v>
+      </c>
+      <c r="K49" s="19">
+        <v>-0.66</v>
+      </c>
+      <c r="L49" s="19">
+        <v>-1.02</v>
+      </c>
+      <c r="M49" s="19">
+        <v>-0.57833000000000001</v>
+      </c>
+      <c r="N49" s="19">
+        <v>-1.3049999999999999</v>
+      </c>
+      <c r="O49" s="50">
+        <f>K49*200/180</f>
+        <v>-0.73333333333333328</v>
+      </c>
+      <c r="P49" s="50">
+        <f t="shared" ref="P49:P50" si="17">L49*200/180</f>
+        <v>-1.1333333333333333</v>
+      </c>
+      <c r="Q49" s="50">
+        <f t="shared" ref="Q49:Q50" si="18">M49*200/180</f>
+        <v>-0.64258888888888888</v>
+      </c>
+      <c r="R49" s="50">
+        <f t="shared" ref="R49:R50" si="19">N49*200/180</f>
+        <v>-1.45</v>
+      </c>
+      <c r="S49" s="69">
+        <f>O49-Q49</f>
+        <v>-9.0744444444444405E-2</v>
+      </c>
+      <c r="T49" s="69">
+        <f>P49-R49</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="U49" s="72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B50" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="20">
+        <v>46.802590000000002</v>
+      </c>
+      <c r="D50" s="20">
+        <v>6.6044400000000003</v>
+      </c>
+      <c r="E50" s="51">
+        <f>C50*PI()/180</f>
+        <v>0.81685929396097279</v>
+      </c>
+      <c r="F50" s="51">
+        <f>D50*PI()/180</f>
+        <v>0.1152692232504143</v>
+      </c>
+      <c r="G50" s="52">
+        <v>2536322</v>
+      </c>
+      <c r="H50" s="20">
+        <v>1183831.2</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0.81563963354371005</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0.11928450164388001</v>
+      </c>
+      <c r="K50" s="20">
         <v>5.75</v>
       </c>
-      <c r="L41" s="35">
-        <v>-13.580936016023999</v>
-      </c>
-      <c r="M41" s="35">
-        <v>1.029612009531</v>
-      </c>
-      <c r="N41" s="35">
-        <f>J41-L41</f>
-        <v>2.0209359203709987</v>
-      </c>
-      <c r="O41" s="35">
-        <f>K41-M41</f>
-        <v>4.7203879904689998</v>
-      </c>
-      <c r="P41" s="35">
-        <f>((N41/3600)*200/180)*10000</f>
-        <v>6.2374565443549344</v>
-      </c>
-      <c r="Q41" s="36">
-        <f>((O41/3600)*200/180)*10000</f>
-        <v>14.569098736015432</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="37">
-        <v>0.81685911942804801</v>
-      </c>
-      <c r="D42" s="37">
-        <v>0.11526939778334</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="38">
-        <v>-4.6246926977402997E-5</v>
-      </c>
-      <c r="G42" s="38">
-        <v>5.0761976351260003E-5</v>
-      </c>
-      <c r="H42" s="38">
-        <v>-3.2191628000000002E-5</v>
-      </c>
-      <c r="I42" s="38">
-        <v>3.8397243999999999E-5</v>
-      </c>
-      <c r="J42" s="39">
-        <v>-6.6399999121985998</v>
-      </c>
-      <c r="K42" s="39">
-        <v>7.92</v>
-      </c>
-      <c r="L42" s="39">
-        <v>-9.5391134325176008</v>
-      </c>
-      <c r="M42" s="39">
-        <v>10.470409216812</v>
-      </c>
-      <c r="N42" s="39">
-        <f>J42-L42</f>
-        <v>2.899113520319001</v>
-      </c>
-      <c r="O42" s="39">
-        <f>K42-M42</f>
-        <v>-2.5504092168119996</v>
-      </c>
-      <c r="P42" s="39">
-        <f>((N42/3600)*200/180)*10000</f>
-        <v>8.9478812355524724</v>
-      </c>
-      <c r="Q42" s="40">
-        <f>((O42/3600)*200/180)*10000</f>
-        <v>-7.8716333852222213</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="L50" s="20">
+        <v>-11.56</v>
+      </c>
+      <c r="M50" s="20">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="N50" s="20">
+        <v>-11.324999999999999</v>
+      </c>
+      <c r="O50" s="52">
+        <f>K50*200/180</f>
+        <v>6.3888888888888893</v>
+      </c>
+      <c r="P50" s="52">
+        <f t="shared" si="17"/>
+        <v>-12.844444444444445</v>
+      </c>
+      <c r="Q50" s="52">
+        <f t="shared" si="18"/>
+        <v>6.5266666666666664</v>
+      </c>
+      <c r="R50" s="52">
+        <f t="shared" si="19"/>
+        <v>-12.583333333333334</v>
+      </c>
+      <c r="S50" s="70">
+        <f>O50-Q50</f>
+        <v>-0.13777777777777711</v>
+      </c>
+      <c r="T50" s="70">
+        <f>P50-R50</f>
+        <v>-0.26111111111111107</v>
+      </c>
+      <c r="U50" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F39:G39"/>
+  <mergeCells count="19">
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U49:U50"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Comparaison_transfo_Suisse.xlsx
+++ b/docs/Comparaison_transfo_Suisse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53D060C6-44CA-468A-AF1A-50D524846F6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5BBA0839-3FD8-4097-A7DF-3E2BCE1B7924}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>Comparaison de coordonnées</t>
   </si>
@@ -235,13 +235,19 @@
     <t>Différence en dessous du mm --&gt; acceptable</t>
   </si>
   <si>
-    <t>Erreurs dificiles à quantifier. Viens sans doute des coordonnées "approximatif" de départ (1 décimal en MN03). Selon nous elle est acceptable.</t>
-  </si>
-  <si>
     <t>Déviation de la verticale / Vecteur Français</t>
   </si>
   <si>
     <t>Déviation de la verticale / Vecteur Suisse</t>
+  </si>
+  <si>
+    <t>Valeur de zéta en sortie du calcul</t>
+  </si>
+  <si>
+    <t>[zéta en sec d'arc]</t>
+  </si>
+  <si>
+    <t>Erreurs dificiles à quantifier. Viens sans doute des coordonnées "approximatif" de départ (1 décimal en MN03). Selon nous elle est acceptable. Zéta ok.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -488,13 +500,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,7 +510,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,26 +549,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,13 +578,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U50"/>
+  <dimension ref="B2:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="V49" sqref="V49:V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +928,8 @@
     <col min="15" max="16" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="69.109375" customWidth="1"/>
+    <col min="21" max="21" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
@@ -900,46 +938,46 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1086,7 +1124,7 @@
         <f>(J8-M8)*1000</f>
         <v>31.825335189296311</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="50" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1137,7 +1175,7 @@
         <f t="shared" ref="N9:P11" si="0">(J9-M9)*1000</f>
         <v>31.725335189321413</v>
       </c>
-      <c r="Q9" s="54" t="s">
+      <c r="Q9" s="51" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1188,7 +1226,7 @@
         <f t="shared" si="0"/>
         <v>-81.000000000130967</v>
       </c>
-      <c r="Q10" s="54"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
@@ -1239,7 +1277,7 @@
         <f t="shared" ref="P11" si="2">(J11-M11)*1000</f>
         <v>3.0000000000427463</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="Q11" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1259,268 +1297,268 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
-      <c r="Q12" s="54"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="2:17" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="75">
         <v>4291771.9939999999</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="75">
         <v>544504.83299999998</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="75">
         <v>4672230.034</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="75">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="75">
         <v>1249277.899</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="75">
         <v>891.52700000000004</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29">
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75">
         <f t="shared" ref="N13:N18" si="3">(H13-K13)*1000</f>
         <v>2584293740</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="75">
         <f t="shared" ref="O13:O21" si="4">(I13-L13)*1000</f>
         <v>1249277899</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="75">
         <f t="shared" ref="P13:P21" si="5">(J13-M13)*1000</f>
         <v>891527</v>
       </c>
-      <c r="Q13" s="54"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="Q13" s="76"/>
+    </row>
+    <row r="14" spans="2:17" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="75">
         <v>4291771.9939999999</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="75">
         <v>544504.83299999998</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="75">
         <v>4672230.034</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="75">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="75">
         <v>1249277.899</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="75">
         <v>891.52700000000004</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="54"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+    </row>
+    <row r="15" spans="2:17" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="78">
         <v>0.82718370811453856</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="78">
         <v>0.12619756995683035</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="75">
         <v>940.16399999999999</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="75">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="75">
         <v>1249277.899</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="75">
         <v>891.52700000000004</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75">
         <f t="shared" si="3"/>
         <v>2584293740</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="75">
         <f t="shared" si="4"/>
         <v>1249277899</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="75">
         <f t="shared" si="5"/>
         <v>891527</v>
       </c>
-      <c r="Q15" s="54"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" spans="2:17" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="78">
         <v>0.82718370811453856</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="78">
         <v>0.12619756995683035</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="75">
         <v>940.16399999999999</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="75">
         <v>4291771.9939999999</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="75">
         <v>544504.83299999998</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="75">
         <v>4672230.034</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75">
         <f t="shared" si="3"/>
         <v>4291771994</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="75">
         <f t="shared" si="4"/>
         <v>544504833</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="75">
         <f t="shared" si="5"/>
         <v>4672230034</v>
       </c>
-      <c r="Q16" s="54"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" spans="2:17" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="75">
         <v>2584293.7400000002</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="75">
         <v>1249277.899</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="75">
         <v>891.52700000000004</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="75">
         <v>4291771.9939999999</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="75">
         <v>544504.83299999998</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="75">
         <v>4672230.034</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29">
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75">
         <f t="shared" si="3"/>
         <v>4291771994</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="75">
         <f t="shared" si="4"/>
         <v>544504833</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="75">
         <f t="shared" si="5"/>
         <v>4672230034</v>
       </c>
-      <c r="Q17" s="54"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="2:17" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="75">
         <v>2584293.7400000002</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="75">
         <v>1249277.899</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="75">
         <v>891.52700000000004</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="75">
         <v>2584293.7400000002</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="75">
         <v>1249277.899</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="75">
         <v>891.52700000000004</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75">
         <f t="shared" si="3"/>
         <v>2584293740</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="75">
         <f t="shared" si="4"/>
         <v>1249277899</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="75">
         <f t="shared" si="5"/>
         <v>891527</v>
       </c>
-      <c r="Q18" s="54"/>
+      <c r="Q18" s="76"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
@@ -1538,7 +1576,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
-      <c r="Q19" s="54"/>
+      <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
@@ -1589,7 +1627,7 @@
         <f t="shared" ref="P20" si="7">(J20-M20)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="54" t="s">
+      <c r="Q20" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1642,7 +1680,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="54" t="s">
+      <c r="Q21" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1665,19 +1703,19 @@
       <c r="G22" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <v>0.8172047685103957</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="33">
         <v>0.11346681199682103</v>
       </c>
       <c r="J22" s="29">
         <v>1155.443</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <v>0.81720479999999995</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="33">
         <v>0.11346680000000001</v>
       </c>
       <c r="M22" s="29">
@@ -1695,7 +1733,7 @@
         <f t="shared" ref="P22" si="9">(J22-M22)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="54" t="s">
+      <c r="Q22" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1709,10 +1747,10 @@
       <c r="D23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>0.8172047685103957</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <v>0.11346681199682103</v>
       </c>
       <c r="G23" s="29">
@@ -1748,7 +1786,7 @@
         <f t="shared" ref="P23:P25" si="11">(J23-M23)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="54" t="s">
+      <c r="Q23" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1762,10 +1800,10 @@
       <c r="D24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <v>0.8172047685103957</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <v>0.11346681199682103</v>
       </c>
       <c r="G24" s="29">
@@ -1780,7 +1818,7 @@
       <c r="J24" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="80">
         <v>4344778.5750000002</v>
       </c>
       <c r="L24" s="32">
@@ -1801,7 +1839,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="54" t="s">
+      <c r="Q24" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1833,7 +1871,7 @@
       <c r="J25" s="29">
         <v>4629118.6960000005</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="80">
         <v>4344778.5750000002</v>
       </c>
       <c r="L25" s="32">
@@ -1854,12 +1892,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="54" t="s">
+      <c r="Q25" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -1868,46 +1906,46 @@
       <c r="D26" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="35">
         <v>2528465.1660000002</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="35">
         <v>1186121.148</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="35">
         <v>1104.7429999999999</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="36">
         <v>0.8172047685103957</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="36">
         <v>0.11346681199682103</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="55">
         <v>1155.443</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="81">
         <v>0.81720476850176005</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="79">
         <v>0.11346681198953</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="37">
         <v>1155.443</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="38">
         <f t="shared" si="12"/>
         <v>8.6356477524418551E-9</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="38">
         <f t="shared" si="10"/>
         <v>7.2910288917427124E-9</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="38">
         <f>(J26-M26)*1000</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="55" t="s">
+      <c r="Q26" s="52" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1999,11 +2037,11 @@
       <c r="I31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="56" t="s">
+      <c r="J31" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
       <c r="M31" s="14"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
@@ -2031,23 +2069,23 @@
       <c r="I32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="68"/>
       <c r="M32" s="14"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="19">
         <v>537244.00009999995</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="43">
         <v>181153.0001</v>
       </c>
       <c r="E33" s="29">
@@ -2063,23 +2101,23 @@
         <f>(F33-E33)*100</f>
         <v>-3.6999999999977717</v>
       </c>
-      <c r="I33" s="50">
+      <c r="I33" s="47">
         <f>(G33-H33)*10</f>
         <v>0.66999999997771731</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="14"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="20">
@@ -2088,35 +2126,35 @@
       <c r="D34" s="20">
         <v>189019.0001</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="35">
         <v>440.5</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="35">
         <v>440.46</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="35">
         <v>-4.0279999999999996</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="35">
         <f>(F34-E34)*100</f>
         <v>-4.0000000000020464</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="49">
         <f>(G34-H34)*10</f>
         <v>-0.27999999997953218</v>
       </c>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="14"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -2131,7 +2169,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -2146,9 +2184,9 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="2:21" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:22" ht="21" x14ac:dyDescent="0.4">
       <c r="B37" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2164,7 +2202,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2178,121 +2216,127 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K39" s="56" t="s">
+      <c r="K39" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56" t="s">
+      <c r="L39" s="65"/>
+      <c r="M39" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56" t="s">
+      <c r="N39" s="65"/>
+      <c r="O39" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56" t="s">
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="R39" s="56"/>
-      <c r="S39" s="44" t="s">
+      <c r="R39" s="65"/>
+      <c r="S39" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="T39" s="44" t="s">
+      <c r="T39" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="U39" s="42" t="s">
+      <c r="U39" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="V39" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="G40" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K40" s="45" t="s">
+      <c r="K40" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="45" t="s">
+      <c r="L40" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="M40" s="45" t="s">
+      <c r="M40" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="N40" s="45" t="s">
+      <c r="N40" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="O40" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P40" s="45" t="s">
+      <c r="P40" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="R40" s="45" t="s">
+      <c r="R40" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="S40" s="45" t="s">
+      <c r="S40" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="T40" s="45" t="s">
+      <c r="T40" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="U40" s="43"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U40" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="V40" s="40"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="27" t="s">
         <v>48</v>
       </c>
@@ -2302,11 +2346,11 @@
       <c r="D41" s="19">
         <v>6.8336399999999999</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="46">
         <f>C41*PI()/180</f>
         <v>0.81561696859940325</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="46">
         <f>D41*PI()/180</f>
         <v>0.11926951789598531</v>
       </c>
@@ -2334,36 +2378,39 @@
       <c r="N41" s="19">
         <v>3.6549999999999998</v>
       </c>
-      <c r="O41" s="50">
+      <c r="O41" s="47">
         <f>K41*200/180</f>
         <v>1.711111111111111</v>
       </c>
-      <c r="P41" s="50">
+      <c r="P41" s="47">
         <f t="shared" ref="P41:R41" si="13">L41*200/180</f>
         <v>3.7444444444444445</v>
       </c>
-      <c r="Q41" s="50">
+      <c r="Q41" s="47">
         <f t="shared" si="13"/>
         <v>1.6203333333333332</v>
       </c>
-      <c r="R41" s="50">
+      <c r="R41" s="47">
         <f t="shared" si="13"/>
         <v>4.0611111111111109</v>
       </c>
-      <c r="S41" s="69">
+      <c r="S41" s="56">
         <f>O41-Q41</f>
         <v>9.0777777777777846E-2</v>
       </c>
-      <c r="T41" s="69">
+      <c r="T41" s="56">
         <f>P41-R41</f>
         <v>-0.31666666666666643</v>
       </c>
-      <c r="U41" s="72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="36" t="s">
+      <c r="U41" s="56">
+        <v>1</v>
+      </c>
+      <c r="V41" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="20">
@@ -2372,15 +2419,15 @@
       <c r="D42" s="20">
         <v>6.6044400000000003</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="48">
         <f>C42*PI()/180</f>
         <v>0.81685929396097279</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="48">
         <f>D42*PI()/180</f>
         <v>0.1152692232504143</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="49">
         <v>2536322</v>
       </c>
       <c r="H42" s="20">
@@ -2404,162 +2451,172 @@
       <c r="N42" s="20">
         <v>-6.875</v>
       </c>
-      <c r="O42" s="52">
+      <c r="O42" s="49">
         <f>K42*200/180</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="P42" s="52">
+      <c r="P42" s="49">
         <f t="shared" ref="P42" si="14">L42*200/180</f>
         <v>-7.3777777777777782</v>
       </c>
-      <c r="Q42" s="52">
+      <c r="Q42" s="49">
         <f t="shared" ref="Q42" si="15">M42*200/180</f>
         <v>8.6621111111111109</v>
       </c>
-      <c r="R42" s="52">
+      <c r="R42" s="49">
         <f t="shared" ref="R42" si="16">N42*200/180</f>
         <v>-7.6388888888888893</v>
       </c>
-      <c r="S42" s="70">
+      <c r="S42" s="57">
         <f>O42-Q42</f>
         <v>0.13788888888888984</v>
       </c>
-      <c r="T42" s="70">
+      <c r="T42" s="57">
         <f>P42-R42</f>
         <v>0.26111111111111107</v>
       </c>
-      <c r="U42" s="71"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-    </row>
-    <row r="45" spans="2:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="U42" s="57">
+        <v>1</v>
+      </c>
+      <c r="V42" s="59"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+    </row>
+    <row r="45" spans="2:22" ht="21" x14ac:dyDescent="0.4">
       <c r="B45" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="44" t="s">
+      <c r="I47" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="44" t="s">
+      <c r="J47" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K47" s="56" t="s">
+      <c r="K47" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56" t="s">
+      <c r="L47" s="65"/>
+      <c r="M47" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56" t="s">
+      <c r="N47" s="65"/>
+      <c r="O47" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56" t="s">
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="R47" s="56"/>
-      <c r="S47" s="44" t="s">
+      <c r="R47" s="65"/>
+      <c r="S47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="T47" s="44" t="s">
+      <c r="T47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="U47" s="42" t="s">
+      <c r="U47" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="V47" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F48" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="45" t="s">
+      <c r="L48" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="N48" s="45" t="s">
+      <c r="N48" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="O48" s="45" t="s">
+      <c r="O48" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P48" s="45" t="s">
+      <c r="P48" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="Q48" s="45" t="s">
+      <c r="Q48" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="R48" s="45" t="s">
+      <c r="R48" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="S48" s="45" t="s">
+      <c r="S48" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="T48" s="45" t="s">
+      <c r="T48" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="U48" s="43"/>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U48" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="V48" s="40"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="27" t="s">
         <v>48</v>
       </c>
@@ -2569,11 +2626,11 @@
       <c r="D49" s="19">
         <v>6.8336399999999999</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="46">
         <f>C49*PI()/180</f>
         <v>0.81561696859940325</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="46">
         <f>D49*PI()/180</f>
         <v>0.11926951789598531</v>
       </c>
@@ -2601,36 +2658,39 @@
       <c r="N49" s="19">
         <v>-1.3049999999999999</v>
       </c>
-      <c r="O49" s="50">
+      <c r="O49" s="47">
         <f>K49*200/180</f>
         <v>-0.73333333333333328</v>
       </c>
-      <c r="P49" s="50">
+      <c r="P49" s="47">
         <f t="shared" ref="P49:P50" si="17">L49*200/180</f>
         <v>-1.1333333333333333</v>
       </c>
-      <c r="Q49" s="50">
+      <c r="Q49" s="47">
         <f t="shared" ref="Q49:Q50" si="18">M49*200/180</f>
         <v>-0.64258888888888888</v>
       </c>
-      <c r="R49" s="50">
+      <c r="R49" s="47">
         <f t="shared" ref="R49:R50" si="19">N49*200/180</f>
         <v>-1.45</v>
       </c>
-      <c r="S49" s="69">
+      <c r="S49" s="56">
         <f>O49-Q49</f>
         <v>-9.0744444444444405E-2</v>
       </c>
-      <c r="T49" s="69">
+      <c r="T49" s="56">
         <f>P49-R49</f>
         <v>0.31666666666666665</v>
       </c>
-      <c r="U49" s="72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B50" s="36" t="s">
+      <c r="U49" s="56">
+        <v>1</v>
+      </c>
+      <c r="V49" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C50" s="20">
@@ -2639,15 +2699,15 @@
       <c r="D50" s="20">
         <v>6.6044400000000003</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="48">
         <f>C50*PI()/180</f>
         <v>0.81685929396097279</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="48">
         <f>D50*PI()/180</f>
         <v>0.1152692232504143</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="49">
         <v>2536322</v>
       </c>
       <c r="H50" s="20">
@@ -2671,36 +2731,42 @@
       <c r="N50" s="20">
         <v>-11.324999999999999</v>
       </c>
-      <c r="O50" s="52">
+      <c r="O50" s="49">
         <f>K50*200/180</f>
         <v>6.3888888888888893</v>
       </c>
-      <c r="P50" s="52">
+      <c r="P50" s="49">
         <f t="shared" si="17"/>
         <v>-12.844444444444445</v>
       </c>
-      <c r="Q50" s="52">
+      <c r="Q50" s="49">
         <f t="shared" si="18"/>
         <v>6.5266666666666664</v>
       </c>
-      <c r="R50" s="52">
+      <c r="R50" s="49">
         <f t="shared" si="19"/>
         <v>-12.583333333333334</v>
       </c>
-      <c r="S50" s="70">
+      <c r="S50" s="57">
         <f>O50-Q50</f>
         <v>-0.13777777777777711</v>
       </c>
-      <c r="T50" s="70">
+      <c r="T50" s="57">
         <f>P50-R50</f>
         <v>-0.26111111111111107</v>
       </c>
-      <c r="U50" s="71"/>
+      <c r="U50" s="57">
+        <v>1</v>
+      </c>
+      <c r="V50" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="V49:V50"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="H5:J5"/>
@@ -2715,9 +2781,6 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Comparaison_transfo_Suisse.xlsx
+++ b/docs/Comparaison_transfo_Suisse.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF70C471-705A-4FD7-A784-EA3B3929A376}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
   <si>
     <t>Comparaison de coordonnées</t>
   </si>
@@ -245,17 +244,131 @@
   </si>
   <si>
     <t>Erreurs  plus qu'acceptable au vu des précision de mesures angulaires des instruments sur le marché. Zéta ok.</t>
+  </si>
+  <si>
+    <t>Points pris dans map.geo.admin.ch</t>
+  </si>
+  <si>
+    <t>E MN03</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>N MN03</t>
+  </si>
+  <si>
+    <t>E MN95</t>
+  </si>
+  <si>
+    <t>N MN95</t>
+  </si>
+  <si>
+    <t>lamb ETRS89</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>phi ETRS89</t>
+  </si>
+  <si>
+    <t>Alt NF02</t>
+  </si>
+  <si>
+    <t>Cote ETRS89</t>
+  </si>
+  <si>
+    <t>Cote CH1903</t>
+  </si>
+  <si>
+    <t>Htrans</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Transfo de MN03 --&gt; ETRS89</t>
+  </si>
+  <si>
+    <t>Transformations</t>
+  </si>
+  <si>
+    <t>E/lambda doit</t>
+  </si>
+  <si>
+    <t>N/phi doit</t>
+  </si>
+  <si>
+    <t>Alt doit</t>
+  </si>
+  <si>
+    <t>E/lambda avoir</t>
+  </si>
+  <si>
+    <t>N/phi avoir</t>
+  </si>
+  <si>
+    <t>Alt avoir</t>
+  </si>
+  <si>
+    <t>m / degré</t>
+  </si>
+  <si>
+    <t>mm / sec</t>
+  </si>
+  <si>
+    <t>mm/ sec</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>MN03-&gt;MN95 / NF02-&gt;RAN95</t>
+  </si>
+  <si>
+    <t>Diff due à la préc des coord</t>
+  </si>
+  <si>
+    <t>MN95-&gt;CH1903 / RAN95-&gt;h ellip</t>
+  </si>
+  <si>
+    <t>Déviation de la verticale / Vecteur Suisse / aller retour</t>
+  </si>
+  <si>
+    <t>Dévia. Avoir aller ETRS89</t>
+  </si>
+  <si>
+    <t>Dévia. Avoir retour CH1903+</t>
+  </si>
+  <si>
+    <t>CH1903geog--&gt;CH1903cart</t>
+  </si>
+  <si>
+    <t>CH1903cart --&gt; etrs89cart</t>
+  </si>
+  <si>
+    <t>etrs89cart--&gt; etrs89geog</t>
+  </si>
+  <si>
+    <t>Diff egale à précédente =&gt; transfo OK</t>
+  </si>
+  <si>
+    <t>Diff ok vu la préc des valeurs de cote prise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -323,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -411,11 +524,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -560,47 +710,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,11 +1082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,46 +1118,46 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="s">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1737,11 +1938,11 @@
       <c r="I24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="69"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="14"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -1769,9 +1970,9 @@
       <c r="I25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="14"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -1805,11 +2006,11 @@
         <f>(G26-H26)*10</f>
         <v>0.66999999997771731</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="14"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -1843,11 +2044,11 @@
         <f>(G27-H27)*10</f>
         <v>-0.27999999997953218</v>
       </c>
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
       <c r="M27" s="14"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
@@ -1944,22 +2145,22 @@
       <c r="J32" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="K32" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61" t="s">
+      <c r="L32" s="65"/>
+      <c r="M32" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61" t="s">
+      <c r="N32" s="65"/>
+      <c r="O32" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61" t="s">
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="61"/>
+      <c r="R32" s="65"/>
       <c r="S32" s="41" t="s">
         <v>62</v>
       </c>
@@ -2105,7 +2306,7 @@
       <c r="U34" s="56">
         <v>1</v>
       </c>
-      <c r="V34" s="62" t="s">
+      <c r="V34" s="78" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2178,7 +2379,7 @@
       <c r="U35" s="57">
         <v>1</v>
       </c>
-      <c r="V35" s="63"/>
+      <c r="V35" s="79"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E36" s="44"/>
@@ -2224,22 +2425,22 @@
       <c r="J40" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="61" t="s">
+      <c r="K40" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61" t="s">
+      <c r="L40" s="65"/>
+      <c r="M40" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61" t="s">
+      <c r="N40" s="65"/>
+      <c r="O40" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61" t="s">
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="R40" s="61"/>
+      <c r="R40" s="65"/>
       <c r="S40" s="41" t="s">
         <v>62</v>
       </c>
@@ -2385,7 +2586,7 @@
       <c r="U42" s="56">
         <v>1</v>
       </c>
-      <c r="V42" s="62" t="s">
+      <c r="V42" s="78" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2458,10 +2659,586 @@
       <c r="U43" s="57">
         <v>1</v>
       </c>
-      <c r="V43" s="63"/>
+      <c r="V43" s="79"/>
+    </row>
+    <row r="46" spans="2:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="B46" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="R48" s="65"/>
+      <c r="S48" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="T48" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="U48" s="61"/>
+      <c r="V48" s="62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="R49" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="S49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="U49" s="63"/>
+      <c r="V49" s="64"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="85">
+        <v>46.731409999999997</v>
+      </c>
+      <c r="D50" s="85">
+        <v>6.8336399999999999</v>
+      </c>
+      <c r="E50" s="86">
+        <f>C50*PI()/180</f>
+        <v>0.81561696859940325</v>
+      </c>
+      <c r="F50" s="86">
+        <f>D50*PI()/180</f>
+        <v>0.11926951789598531</v>
+      </c>
+      <c r="G50" s="85">
+        <v>2553756.4</v>
+      </c>
+      <c r="H50" s="85">
+        <v>1175757.8999999999</v>
+      </c>
+      <c r="I50" s="85">
+        <v>0.81563963354371005</v>
+      </c>
+      <c r="J50" s="85">
+        <v>0.11928450164388001</v>
+      </c>
+      <c r="K50" s="85">
+        <v>-0.66</v>
+      </c>
+      <c r="L50" s="85">
+        <v>-1.02</v>
+      </c>
+      <c r="M50" s="85">
+        <v>1.4582999999999999</v>
+      </c>
+      <c r="N50" s="85">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="O50" s="87">
+        <f>K50*200/180</f>
+        <v>-0.73333333333333328</v>
+      </c>
+      <c r="P50" s="87">
+        <f t="shared" ref="P50" si="19">L50*200/180</f>
+        <v>-1.1333333333333333</v>
+      </c>
+      <c r="Q50" s="88">
+        <v>-0.66</v>
+      </c>
+      <c r="R50" s="88">
+        <v>-1.02</v>
+      </c>
+      <c r="S50" s="88">
+        <f>K50-Q50</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="88">
+        <f>L50-R50</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="88"/>
+      <c r="V50" s="89"/>
+    </row>
+    <row r="54" spans="2:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="B54" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="80">
+        <v>521005.15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="80">
+        <v>176033.61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="90">
+        <v>2521004.7999999998</v>
+      </c>
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="90">
+        <v>1176034.3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60">
+        <v>6.4051600000000004</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>46.730809999999998</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="80">
+        <v>910.2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>50.5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>-0.5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65">
+        <v>-0.81200000000000006</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="65"/>
+      <c r="D69" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="J69" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L69" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="M69" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" s="65"/>
+      <c r="O69" s="66"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="82"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="K70" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="L70" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="68"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B71" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="91">
+        <f>C58</f>
+        <v>2521004.7999999998</v>
+      </c>
+      <c r="E71" s="91">
+        <f>C59</f>
+        <v>1176034.3</v>
+      </c>
+      <c r="F71" s="92">
+        <f>C62+C65/100</f>
+        <v>910.19188000000008</v>
+      </c>
+      <c r="G71" s="23">
+        <v>2521004.8045999999</v>
+      </c>
+      <c r="H71" s="23">
+        <v>1176034.3026000001</v>
+      </c>
+      <c r="I71" s="23">
+        <v>910.19500000000005</v>
+      </c>
+      <c r="J71" s="93">
+        <f>(D71-G71)*1000</f>
+        <v>-4.6000001020729542</v>
+      </c>
+      <c r="K71" s="93">
+        <f>(E71-H71)*1000</f>
+        <v>-2.6000000070780516</v>
+      </c>
+      <c r="L71" s="93">
+        <f>(F71-I71)*1000</f>
+        <v>-3.1199999999671491</v>
+      </c>
+      <c r="M71" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="N71" s="94"/>
+      <c r="O71" s="78"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="95">
+        <f>F71+C64</f>
+        <v>909.69188000000008</v>
+      </c>
+      <c r="G72" s="96">
+        <f>0.11180482273405*180/PI()</f>
+        <v>6.4059444718693825</v>
+      </c>
+      <c r="H72" s="96">
+        <f>0.8156292892892*180/PI()</f>
+        <v>46.732115923526045</v>
+      </c>
+      <c r="I72" s="97">
+        <f>909.695042770145</f>
+        <v>909.69504277014505</v>
+      </c>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="47">
+        <f>(F72-I72)*1000</f>
+        <v>-3.162770144967908</v>
+      </c>
+      <c r="M72" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="N72" s="83"/>
+      <c r="O72" s="98"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19">
+        <v>4352168.0681689</v>
+      </c>
+      <c r="H73" s="19">
+        <v>488631.09285984002</v>
+      </c>
+      <c r="I73" s="19">
+        <v>4621598.7120332997</v>
+      </c>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="99"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19">
+        <v>4352842.4421688998</v>
+      </c>
+      <c r="H74" s="19">
+        <v>488646.14885984</v>
+      </c>
+      <c r="I74" s="19">
+        <v>4622004.0580332996</v>
+      </c>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="99"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20">
+        <f>C60</f>
+        <v>6.4051600000000004</v>
+      </c>
+      <c r="E75" s="20">
+        <f>C61</f>
+        <v>46.730809999999998</v>
+      </c>
+      <c r="F75" s="100">
+        <f>C63+F71</f>
+        <v>960.69188000000008</v>
+      </c>
+      <c r="G75" s="20">
+        <f>0.11179106091866*180/PI()</f>
+        <v>6.4051559779290974</v>
+      </c>
+      <c r="H75" s="20">
+        <f>0.81560652823782*180/PI()</f>
+        <v>46.730811811344687</v>
+      </c>
+      <c r="I75" s="20">
+        <v>960.69706994201999</v>
+      </c>
+      <c r="J75" s="57">
+        <f>(D75-G75)*10000</f>
+        <v>4.0220709029981094E-2</v>
+      </c>
+      <c r="K75" s="57">
+        <f>(E75-H75)*10000</f>
+        <v>-1.8113446884626683E-2</v>
+      </c>
+      <c r="L75" s="57">
+        <f>(F75-I75)*1000</f>
+        <v>-5.1899420199106316</v>
+      </c>
+      <c r="M75" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" s="101"/>
+      <c r="O75" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="30">
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="J24:L24"/>
@@ -2469,18 +3246,6 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Comparaison_transfo_Suisse.xlsx
+++ b/docs/Comparaison_transfo_Suisse.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D3D6386-453E-4A7A-845E-A89A778128C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <t>Comparaison de coordonnées</t>
   </si>
@@ -246,9 +247,6 @@
     <t>Erreurs  plus qu'acceptable au vu des précision de mesures angulaires des instruments sur le marché. Zéta ok.</t>
   </si>
   <si>
-    <t>Points pris dans map.geo.admin.ch</t>
-  </si>
-  <si>
     <t>E MN03</t>
   </si>
   <si>
@@ -312,27 +310,6 @@
     <t>Alt avoir</t>
   </si>
   <si>
-    <t>m / degré</t>
-  </si>
-  <si>
-    <t>mm / sec</t>
-  </si>
-  <si>
-    <t>mm/ sec</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>MN03-&gt;MN95 / NF02-&gt;RAN95</t>
-  </si>
-  <si>
-    <t>Diff due à la préc des coord</t>
-  </si>
-  <si>
-    <t>MN95-&gt;CH1903 / RAN95-&gt;h ellip</t>
-  </si>
-  <si>
     <t>Déviation de la verticale / Vecteur Suisse / aller retour</t>
   </si>
   <si>
@@ -342,33 +319,50 @@
     <t>Dévia. Avoir retour CH1903+</t>
   </si>
   <si>
-    <t>CH1903geog--&gt;CH1903cart</t>
-  </si>
-  <si>
-    <t>CH1903cart --&gt; etrs89cart</t>
-  </si>
-  <si>
-    <t>etrs89cart--&gt; etrs89geog</t>
-  </si>
-  <si>
     <t>Diff egale à précédente =&gt; transfo OK</t>
   </si>
   <si>
-    <t>Diff ok vu la préc des valeurs de cote prise</t>
+    <t>Contrôle cote du geoide / Points pris dans map.geo.admin.ch</t>
+  </si>
+  <si>
+    <t>[m / degré]</t>
+  </si>
+  <si>
+    <t>[mm / sec]</t>
+  </si>
+  <si>
+    <t>MN03 / NF02</t>
+  </si>
+  <si>
+    <t>MN95 / RAN95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellipsoidale CH1903+ </t>
+  </si>
+  <si>
+    <t>Carthésienne CH1903+</t>
+  </si>
+  <si>
+    <t>Ellipsoidale ETRS89</t>
+  </si>
+  <si>
+    <t>Diff ok vu la précision des valeurs de cote prise</t>
+  </si>
+  <si>
+    <t>Diff due à la précision des coordonnées</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.0000000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -565,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -722,58 +716,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -782,26 +728,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,17 +1093,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1118,46 +1129,46 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="91"/>
     </row>
     <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="77" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77" t="s">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77" t="s">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1938,11 +1949,11 @@
       <c r="I24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
       <c r="M24" s="14"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -1970,9 +1981,9 @@
       <c r="I25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="14"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -2006,11 +2017,11 @@
         <f>(G26-H26)*10</f>
         <v>0.66999999997771731</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="94"/>
       <c r="M26" s="14"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -2044,11 +2055,11 @@
         <f>(G27-H27)*10</f>
         <v>-0.27999999997953218</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="72"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
       <c r="M27" s="14"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
@@ -2145,22 +2156,22 @@
       <c r="J32" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65" t="s">
+      <c r="L32" s="82"/>
+      <c r="M32" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65" t="s">
+      <c r="N32" s="82"/>
+      <c r="O32" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65" t="s">
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="65"/>
+      <c r="R32" s="82"/>
       <c r="S32" s="41" t="s">
         <v>62</v>
       </c>
@@ -2306,7 +2317,7 @@
       <c r="U34" s="56">
         <v>1</v>
       </c>
-      <c r="V34" s="78" t="s">
+      <c r="V34" s="86" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2379,7 +2390,7 @@
       <c r="U35" s="57">
         <v>1</v>
       </c>
-      <c r="V35" s="79"/>
+      <c r="V35" s="87"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E36" s="44"/>
@@ -2425,22 +2436,22 @@
       <c r="J40" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="65" t="s">
+      <c r="K40" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65" t="s">
+      <c r="L40" s="82"/>
+      <c r="M40" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65" t="s">
+      <c r="N40" s="82"/>
+      <c r="O40" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65" t="s">
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="R40" s="65"/>
+      <c r="R40" s="82"/>
       <c r="S40" s="41" t="s">
         <v>62</v>
       </c>
@@ -2586,7 +2597,7 @@
       <c r="U42" s="56">
         <v>1</v>
       </c>
-      <c r="V42" s="78" t="s">
+      <c r="V42" s="86" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2659,11 +2670,11 @@
       <c r="U43" s="57">
         <v>1</v>
       </c>
-      <c r="V43" s="79"/>
+      <c r="V43" s="87"/>
     </row>
     <row r="46" spans="2:22" ht="21" x14ac:dyDescent="0.4">
       <c r="B46" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
@@ -2694,22 +2705,22 @@
       <c r="J48" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="65" t="s">
+      <c r="K48" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="R48" s="65"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="R48" s="82"/>
       <c r="S48" s="61" t="s">
         <v>62</v>
       </c>
@@ -2783,278 +2794,284 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="85">
+      <c r="C50" s="69">
         <v>46.731409999999997</v>
       </c>
-      <c r="D50" s="85">
+      <c r="D50" s="69">
         <v>6.8336399999999999</v>
       </c>
-      <c r="E50" s="86">
+      <c r="E50" s="70">
         <f>C50*PI()/180</f>
         <v>0.81561696859940325</v>
       </c>
-      <c r="F50" s="86">
+      <c r="F50" s="70">
         <f>D50*PI()/180</f>
         <v>0.11926951789598531</v>
       </c>
-      <c r="G50" s="85">
+      <c r="G50" s="69">
         <v>2553756.4</v>
       </c>
-      <c r="H50" s="85">
+      <c r="H50" s="69">
         <v>1175757.8999999999</v>
       </c>
-      <c r="I50" s="85">
+      <c r="I50" s="69">
         <v>0.81563963354371005</v>
       </c>
-      <c r="J50" s="85">
+      <c r="J50" s="69">
         <v>0.11928450164388001</v>
       </c>
-      <c r="K50" s="85">
+      <c r="K50" s="69">
         <v>-0.66</v>
       </c>
-      <c r="L50" s="85">
+      <c r="L50" s="69">
         <v>-1.02</v>
       </c>
-      <c r="M50" s="85">
+      <c r="M50" s="69">
         <v>1.4582999999999999</v>
       </c>
-      <c r="N50" s="85">
+      <c r="N50" s="69">
         <v>3.6549999999999998</v>
       </c>
-      <c r="O50" s="87">
+      <c r="O50" s="71">
         <f>K50*200/180</f>
         <v>-0.73333333333333328</v>
       </c>
-      <c r="P50" s="87">
+      <c r="P50" s="71">
         <f t="shared" ref="P50" si="19">L50*200/180</f>
         <v>-1.1333333333333333</v>
       </c>
-      <c r="Q50" s="88">
+      <c r="Q50" s="72">
         <v>-0.66</v>
       </c>
-      <c r="R50" s="88">
+      <c r="R50" s="72">
         <v>-1.02</v>
       </c>
-      <c r="S50" s="88">
+      <c r="S50" s="72">
         <f>K50-Q50</f>
         <v>0</v>
       </c>
-      <c r="T50" s="88">
+      <c r="T50" s="72">
         <f>L50-R50</f>
         <v>0</v>
       </c>
-      <c r="U50" s="88"/>
-      <c r="V50" s="89"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="73"/>
     </row>
     <row r="54" spans="2:22" ht="21" x14ac:dyDescent="0.4">
       <c r="B54" s="21" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="67">
+        <v>521005.15</v>
+      </c>
+      <c r="D56" t="s">
         <v>76</v>
-      </c>
-      <c r="C56" s="80">
-        <v>521005.15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="80">
+        <v>77</v>
+      </c>
+      <c r="C57" s="67">
         <v>176033.61</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="90">
+        <v>78</v>
+      </c>
+      <c r="C58" s="74">
         <v>2521004.7999999998</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="90">
+        <v>79</v>
+      </c>
+      <c r="C59" s="74">
         <v>1176034.3</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60">
         <v>6.4051600000000004</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>46.730809999999998</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="80">
+        <v>83</v>
+      </c>
+      <c r="C62" s="67">
         <v>910.2</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <v>50.5</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64">
         <v>-0.5</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <v>-0.81200000000000006</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="82"/>
+      <c r="D69" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="61" t="s">
+      <c r="E69" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="F69" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="61" t="s">
+      <c r="G69" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G69" s="61" t="s">
+      <c r="H69" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="H69" s="61" t="s">
+      <c r="I69" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="J69" s="61" t="s">
+      <c r="J69" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="61" t="s">
+      <c r="K69" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="L69" s="61" t="s">
+      <c r="L69" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="M69" s="65" t="s">
+      <c r="M69" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="N69" s="65"/>
-      <c r="O69" s="66"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="83"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B70" s="82"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="H70" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I70" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="J70" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="K70" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="L70" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="68"/>
+      <c r="B70" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="K70" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="L70" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="85"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="91">
+        <v>103</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="75">
         <f>C58</f>
         <v>2521004.7999999998</v>
       </c>
-      <c r="E71" s="91">
+      <c r="E71" s="75">
         <f>C59</f>
         <v>1176034.3</v>
       </c>
-      <c r="F71" s="92">
+      <c r="F71" s="76">
         <f>C62+C65/100</f>
         <v>910.19188000000008</v>
       </c>
@@ -3067,44 +3084,46 @@
       <c r="I71" s="23">
         <v>910.19500000000005</v>
       </c>
-      <c r="J71" s="93">
+      <c r="J71" s="77">
         <f>(D71-G71)*1000</f>
         <v>-4.6000001020729542</v>
       </c>
-      <c r="K71" s="93">
+      <c r="K71" s="77">
         <f>(E71-H71)*1000</f>
         <v>-2.6000000070780516</v>
       </c>
-      <c r="L71" s="93">
+      <c r="L71" s="77">
         <f>(F71-I71)*1000</f>
         <v>-3.1199999999671491</v>
       </c>
-      <c r="M71" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="N71" s="94"/>
-      <c r="O71" s="78"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M71" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="N71" s="100"/>
+      <c r="O71" s="101"/>
+    </row>
+    <row r="72" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="95">
+      <c r="F72" s="78">
         <f>F71+C64</f>
         <v>909.69188000000008</v>
       </c>
-      <c r="G72" s="96">
+      <c r="G72" s="97">
         <f>0.11180482273405*180/PI()</f>
         <v>6.4059444718693825</v>
       </c>
-      <c r="H72" s="96">
+      <c r="H72" s="97">
         <f>0.8156292892892*180/PI()</f>
         <v>46.732115923526045</v>
       </c>
-      <c r="I72" s="97">
+      <c r="I72" s="79">
         <f>909.695042770145</f>
         <v>909.69504277014505</v>
       </c>
@@ -3114,17 +3133,19 @@
         <f>(F72-I72)*1000</f>
         <v>-3.162770144967908</v>
       </c>
-      <c r="M72" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="N72" s="83"/>
-      <c r="O72" s="98"/>
+      <c r="M72" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="N72" s="102"/>
+      <c r="O72" s="103"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -3140,15 +3161,17 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="99"/>
+      <c r="M73" s="106"/>
+      <c r="N73" s="106"/>
+      <c r="O73" s="107"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
@@ -3164,15 +3187,17 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="99"/>
+      <c r="M74" s="106"/>
+      <c r="N74" s="106"/>
+      <c r="O74" s="107"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="D75" s="20">
         <f>C60</f>
         <v>6.4051600000000004</v>
@@ -3181,7 +3206,7 @@
         <f>C61</f>
         <v>46.730809999999998</v>
       </c>
-      <c r="F75" s="100">
+      <c r="F75" s="80">
         <f>C63+F71</f>
         <v>960.69188000000008</v>
       </c>
@@ -3208,44 +3233,45 @@
         <f>(F75-I75)*1000</f>
         <v>-5.1899420199106316</v>
       </c>
-      <c r="M75" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="N75" s="101"/>
-      <c r="O75" s="102"/>
+      <c r="M75" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="N75" s="104"/>
+      <c r="O75" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M71:O71"/>
+  <mergeCells count="31">
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M40:N40"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:R48"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="E5:G5"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="M74:O74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
